--- a/PCAcombined_predicted_factors_matrix_12.xlsx
+++ b/PCAcombined_predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.06814945435483591</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1575050801671317</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.124220795586092</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07418820465626924</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.03030073729603026</v>
+        <v>0.1575237324346571</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.2185364051886657</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1608983282747655</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1222048768893276</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09279501515130414</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.07921251033064265</v>
+        <v>0.1609173823818463</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>0.9049493741237422</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6133114475211772</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.3282106324859989</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.2063387019366971</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.1419861419223326</v>
+        <v>-0.6133840778717849</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5320182618298126</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3261711010822538</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1682339955515737</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.07770880132014381</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02945033904408512</v>
+        <v>0.3262097273324623</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>-0.6569582033898516</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2880105951445595</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.03072908122701165</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0137053686379299</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0207113418015671</v>
+        <v>-0.2880447023026592</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.1534573128293432</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1187035969213516</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03522165025545691</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.002870841934395653</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.009049206173525637</v>
+        <v>0.1187176541901301</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.006207110742723157</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0087070361712573</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0473993215362009</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.02306647417429577</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.00471227700133323</v>
+        <v>0.008708067287001291</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +502,7 @@
         <v>0.2533009406323772</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1247239359392993</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03562756009501533</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.003935943732663308</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.009074682333448329</v>
+        <v>0.1247387061563453</v>
       </c>
     </row>
     <row r="10">
@@ -591,16 +510,7 @@
         <v>-0.05498441224729209</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.02169850701657274</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.003039628280462815</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.003744954065157673</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.003084141323015514</v>
+        <v>-0.02170107662484991</v>
       </c>
     </row>
     <row r="11">
@@ -608,16 +518,7 @@
         <v>-0.1038927792900755</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02321123251532166</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.01845851740169616</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.00825964441636012</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.004050784984814738</v>
+        <v>-0.02321398126550801</v>
       </c>
     </row>
     <row r="12">
@@ -625,16 +526,7 @@
         <v>0.03193852863420001</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00954807964535632</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.000449701130837748</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.0005699722542106345</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0001770484282081049</v>
+        <v>0.009549210360223952</v>
       </c>
     </row>
     <row r="13">
@@ -642,16 +534,7 @@
         <v>0.003729245419433178</v>
       </c>
       <c r="B13" t="n">
-        <v>0.004835850632893639</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.009404896065566937</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.005533845941255573</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.00405572291585017</v>
+        <v>0.004836423310166326</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_12.xlsx
+++ b/PCAcombined_predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.1575237324346571</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.1693889574673849</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1550916456420954</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.1609173823818463</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.1147690984169837</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08020591313384212</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>-0.6133840778717849</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.434025488065257</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.2991858470089354</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.3262097273324623</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.2157587283666616</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1456320947744528</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>-0.2880447023026592</v>
       </c>
+      <c r="C6" t="n">
+        <v>-0.1480809429429242</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.08931233222083519</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.1187176541901301</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.08517178757361252</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05863677380295387</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +538,12 @@
       <c r="B8" t="n">
         <v>0.008708067287001291</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.01561437002603166</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01051997002540343</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +552,12 @@
       <c r="B9" t="n">
         <v>0.1247387061563453</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.06666411173190563</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03841204638593761</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +566,12 @@
       <c r="B10" t="n">
         <v>-0.02170107662484991</v>
       </c>
+      <c r="C10" t="n">
+        <v>-0.001370312232065336</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.003284209006451265</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +580,12 @@
       <c r="B11" t="n">
         <v>-0.02321398126550801</v>
       </c>
+      <c r="C11" t="n">
+        <v>-0.006733387377862987</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.001649536540996625</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +594,12 @@
       <c r="B12" t="n">
         <v>0.009549210360223952</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.001166773592677189</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0006016549825061951</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -535,6 +607,12 @@
       </c>
       <c r="B13" t="n">
         <v>0.004836423310166326</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.000383547389520872</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.0002558436537012285</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_12.xlsx
+++ b/PCAcombined_predicted_factors_matrix_12.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\04. Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974CC0F1-3008-4F69-9D4A-F2DD0267C829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-49890" yWindow="-3675" windowWidth="29385" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +52,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,199 +376,1873 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AV13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.06814945435483591</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1575237324346571</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1693889574673849</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1550916456420954</v>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>6.8149454354835909E-2</v>
+      </c>
+      <c r="B2">
+        <v>0.15752373243465709</v>
+      </c>
+      <c r="C2">
+        <v>0.1703641377255492</v>
+      </c>
+      <c r="D2">
+        <v>0.1583413576144061</v>
+      </c>
+      <c r="E2">
+        <v>0.13786816969933119</v>
+      </c>
+      <c r="F2">
+        <v>0.1137453216976939</v>
+      </c>
+      <c r="G2">
+        <v>8.7885155013604582E-2</v>
+      </c>
+      <c r="H2">
+        <v>6.1246101196132552E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.4380230160183732E-2</v>
+      </c>
+      <c r="J2">
+        <v>7.6271473326704996E-3</v>
+      </c>
+      <c r="K2">
+        <v>-1.8800259510340259E-2</v>
+      </c>
+      <c r="L2">
+        <v>-4.4769868838412469E-2</v>
+      </c>
+      <c r="M2">
+        <v>-7.0202368422322414E-2</v>
+      </c>
+      <c r="N2">
+        <v>-9.5053114410982575E-2</v>
+      </c>
+      <c r="O2">
+        <v>-0.1193000612232233</v>
+      </c>
+      <c r="P2">
+        <v>-0.14293569106132339</v>
+      </c>
+      <c r="Q2">
+        <v>-0.16596164260177851</v>
+      </c>
+      <c r="R2">
+        <v>-0.1883851693693975</v>
+      </c>
+      <c r="S2">
+        <v>-0.21021683298477661</v>
+      </c>
+      <c r="T2">
+        <v>-0.23146902297914179</v>
+      </c>
+      <c r="U2">
+        <v>-0.25215502424951047</v>
+      </c>
+      <c r="V2">
+        <v>-0.27228844314938572</v>
+      </c>
+      <c r="W2">
+        <v>-0.29188286534150559</v>
+      </c>
+      <c r="X2">
+        <v>-0.31095166110271838</v>
+      </c>
+      <c r="Y2">
+        <v>-0.32950788266038789</v>
+      </c>
+      <c r="Z2">
+        <v>-0.3475642175649411</v>
+      </c>
+      <c r="AA2">
+        <v>-0.36513297504036241</v>
+      </c>
+      <c r="AB2">
+        <v>-0.38222609078546388</v>
+      </c>
+      <c r="AC2">
+        <v>-0.39885514126335597</v>
+      </c>
+      <c r="AD2">
+        <v>-0.41503136210196601</v>
+      </c>
+      <c r="AE2">
+        <v>-0.4307656675050795</v>
+      </c>
+      <c r="AF2">
+        <v>-0.44606866899291381</v>
+      </c>
+      <c r="AG2">
+        <v>-0.46095069265588118</v>
+      </c>
+      <c r="AH2">
+        <v>-0.47542179461496931</v>
+      </c>
+      <c r="AI2">
+        <v>-0.4894917746686131</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.50317018825481397</v>
+      </c>
+      <c r="AK2">
+        <v>-0.51646635692330456</v>
+      </c>
+      <c r="AL2">
+        <v>-0.52938937753101978</v>
+      </c>
+      <c r="AM2">
+        <v>-0.54194813036654643</v>
+      </c>
+      <c r="AN2">
+        <v>-0.55415128638885547</v>
+      </c>
+      <c r="AO2">
+        <v>-0.56600731374047042</v>
+      </c>
+      <c r="AP2">
+        <v>-0.57752448366950793</v>
+      </c>
+      <c r="AQ2">
+        <v>-0.5887108759710914</v>
+      </c>
+      <c r="AR2">
+        <v>-0.59957438403763808</v>
+      </c>
+      <c r="AS2">
+        <v>-0.6101227195896094</v>
+      </c>
+      <c r="AT2">
+        <v>-0.62036341714343812</v>
+      </c>
+      <c r="AU2">
+        <v>-0.63030383826129344</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.2185364051886657</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.21853640518866571</v>
+      </c>
+      <c r="B3">
         <v>0.1609173823818463</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.1147690984169837</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08020591313384212</v>
+      <c r="C3">
+        <v>0.114631092058792</v>
+      </c>
+      <c r="D3">
+        <v>7.9746739248799867E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.645844580775318E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.1584022442922017E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.2498077842186668E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.7355352157334031E-2</v>
+      </c>
+      <c r="I3">
+        <v>2.489703015168114E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.4266869164774101E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.48800454449822E-2</v>
+      </c>
+      <c r="L3">
+        <v>2.6334825100596159E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.8353715814883069E-2</v>
+      </c>
+      <c r="N3">
+        <v>3.074414025777663E-2</v>
+      </c>
+      <c r="O3">
+        <v>3.3371961003704459E-2</v>
+      </c>
+      <c r="P3">
+        <v>3.6143509311871852E-2</v>
+      </c>
+      <c r="Q3">
+        <v>3.8993290114000163E-2</v>
+      </c>
+      <c r="R3">
+        <v>4.1875511370466183E-2</v>
+      </c>
+      <c r="S3">
+        <v>4.475821284910346E-2</v>
+      </c>
+      <c r="T3">
+        <v>4.7619175546124701E-2</v>
+      </c>
+      <c r="U3">
+        <v>5.0443059090013398E-2</v>
+      </c>
+      <c r="V3">
+        <v>5.3219390859541978E-2</v>
+      </c>
+      <c r="W3">
+        <v>5.5941148728506571E-2</v>
+      </c>
+      <c r="X3">
+        <v>5.8603759290077127E-2</v>
+      </c>
+      <c r="Y3">
+        <v>6.1204387932466783E-2</v>
+      </c>
+      <c r="Z3">
+        <v>6.3741434578693842E-2</v>
+      </c>
+      <c r="AA3">
+        <v>6.6214174767882383E-2</v>
+      </c>
+      <c r="AB3">
+        <v>6.8622503712460953E-2</v>
+      </c>
+      <c r="AC3">
+        <v>7.0966753485996362E-2</v>
+      </c>
+      <c r="AD3">
+        <v>7.3247562258684173E-2</v>
+      </c>
+      <c r="AE3">
+        <v>7.5465780649786471E-2</v>
+      </c>
+      <c r="AF3">
+        <v>7.762240459883929E-2</v>
+      </c>
+      <c r="AG3">
+        <v>7.9718527216503493E-2</v>
+      </c>
+      <c r="AH3">
+        <v>8.1755304241227109E-2</v>
+      </c>
+      <c r="AI3">
+        <v>8.3733929263999085E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>8.5655615975594221E-2</v>
+      </c>
+      <c r="AK3">
+        <v>8.7521585468711818E-2</v>
+      </c>
+      <c r="AL3">
+        <v>8.9333057182705844E-2</v>
+      </c>
+      <c r="AM3">
+        <v>9.109124247567657E-2</v>
+      </c>
+      <c r="AN3">
+        <v>9.2797340093107125E-2</v>
+      </c>
+      <c r="AO3">
+        <v>9.4452533006263009E-2</v>
+      </c>
+      <c r="AP3">
+        <v>9.6057986240186993E-2</v>
+      </c>
+      <c r="AQ3">
+        <v>9.7614845416663459E-2</v>
+      </c>
+      <c r="AR3">
+        <v>9.9124235813514386E-2</v>
+      </c>
+      <c r="AS3">
+        <v>0.1005872617964727</v>
+      </c>
+      <c r="AT3">
+        <v>0.10200500651951221</v>
+      </c>
+      <c r="AU3">
+        <v>0.1033785318181589</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.9049493741237422</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.6133840778717849</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.434025488065257</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.2991858470089354</v>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.90494937412374221</v>
+      </c>
+      <c r="B4">
+        <v>-0.61338407787178495</v>
+      </c>
+      <c r="C4">
+        <v>-0.4338411670895248</v>
+      </c>
+      <c r="D4">
+        <v>-0.2986490200749054</v>
+      </c>
+      <c r="E4">
+        <v>-0.2035921533338885</v>
+      </c>
+      <c r="F4">
+        <v>-0.1379004805395582</v>
+      </c>
+      <c r="G4">
+        <v>-9.2771735774398831E-2</v>
+      </c>
+      <c r="H4">
+        <v>-6.1857748773218681E-2</v>
+      </c>
+      <c r="I4">
+        <v>-4.0724936146413551E-2</v>
+      </c>
+      <c r="J4">
+        <v>-2.6309377240680901E-2</v>
+      </c>
+      <c r="K4">
+        <v>-1.650217844778858E-2</v>
+      </c>
+      <c r="L4">
+        <v>-9.8543430328734052E-3</v>
+      </c>
+      <c r="M4">
+        <v>-5.3711850617208963E-3</v>
+      </c>
+      <c r="N4">
+        <v>-2.370265723335826E-3</v>
+      </c>
+      <c r="O4">
+        <v>-3.8355741197333568E-4</v>
+      </c>
+      <c r="P4">
+        <v>9.0982152281930207E-4</v>
+      </c>
+      <c r="Q4">
+        <v>1.7298095811626949E-3</v>
+      </c>
+      <c r="R4">
+        <v>2.2271179485113539E-3</v>
+      </c>
+      <c r="S4">
+        <v>2.5049922872350432E-3</v>
+      </c>
+      <c r="T4">
+        <v>2.6341398098170691E-3</v>
+      </c>
+      <c r="U4">
+        <v>2.6629657578079581E-3</v>
+      </c>
+      <c r="V4">
+        <v>2.624591927276535E-3</v>
+      </c>
+      <c r="W4">
+        <v>2.541668116523307E-3</v>
+      </c>
+      <c r="X4">
+        <v>2.4296701148195472E-3</v>
+      </c>
+      <c r="Y4">
+        <v>2.2991600220399681E-3</v>
+      </c>
+      <c r="Z4">
+        <v>2.1573351990754239E-3</v>
+      </c>
+      <c r="AA4">
+        <v>2.0090895928491391E-3</v>
+      </c>
+      <c r="AB4">
+        <v>1.8577408392586681E-3</v>
+      </c>
+      <c r="AC4">
+        <v>1.705528310785747E-3</v>
+      </c>
+      <c r="AD4">
+        <v>1.553954200799744E-3</v>
+      </c>
+      <c r="AE4">
+        <v>1.404017059905965E-3</v>
+      </c>
+      <c r="AF4">
+        <v>1.2563716534002829E-3</v>
+      </c>
+      <c r="AG4">
+        <v>1.11143835111514E-3</v>
+      </c>
+      <c r="AH4">
+        <v>9.6947795551527774E-4</v>
+      </c>
+      <c r="AI4">
+        <v>8.3064286606515918E-4</v>
+      </c>
+      <c r="AJ4">
+        <v>6.9501204583873499E-4</v>
+      </c>
+      <c r="AK4">
+        <v>5.6261490409273613E-4</v>
+      </c>
+      <c r="AL4">
+        <v>4.3344759672609871E-4</v>
+      </c>
+      <c r="AM4">
+        <v>3.0748414212560709E-4</v>
+      </c>
+      <c r="AN4">
+        <v>1.846839934752805E-4</v>
+      </c>
+      <c r="AO4">
+        <v>6.4997190300702511E-5</v>
+      </c>
+      <c r="AP4">
+        <v>-5.1632142708605373E-5</v>
+      </c>
+      <c r="AQ4">
+        <v>-1.6526342449178579E-4</v>
+      </c>
+      <c r="AR4">
+        <v>-2.7595801517567748E-4</v>
+      </c>
+      <c r="AS4">
+        <v>-3.8377813727957349E-4</v>
+      </c>
+      <c r="AT4">
+        <v>-4.8878615323368806E-4</v>
+      </c>
+      <c r="AU4">
+        <v>-5.9104408504049568E-4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>0.5320182618298126</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.3262097273324623</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2157587283666616</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1456320947744528</v>
+      <c r="B5">
+        <v>0.32620972733246228</v>
+      </c>
+      <c r="C5">
+        <v>0.2157287548745398</v>
+      </c>
+      <c r="D5">
+        <v>0.14555606434169521</v>
+      </c>
+      <c r="E5">
+        <v>9.9787959224052869E-2</v>
+      </c>
+      <c r="F5">
+        <v>6.9256677302228412E-2</v>
+      </c>
+      <c r="G5">
+        <v>4.8557021935046983E-2</v>
+      </c>
+      <c r="H5">
+        <v>3.4342760634897648E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.446713830253194E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.7520536164855799E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.2563563582597781E-2</v>
+      </c>
+      <c r="L5">
+        <v>8.9642758873441902E-3</v>
+      </c>
+      <c r="M5">
+        <v>6.294978005686719E-3</v>
+      </c>
+      <c r="N5">
+        <v>4.2650730810741937E-3</v>
+      </c>
+      <c r="O5">
+        <v>2.6766062433376211E-3</v>
+      </c>
+      <c r="P5">
+        <v>1.3944976517930041E-3</v>
+      </c>
+      <c r="Q5">
+        <v>3.2646141498531809E-4</v>
+      </c>
+      <c r="R5">
+        <v>-5.906087861888039E-4</v>
+      </c>
+      <c r="S5">
+        <v>-1.399900373927055E-3</v>
+      </c>
+      <c r="T5">
+        <v>-2.1309948126238798E-3</v>
+      </c>
+      <c r="U5">
+        <v>-2.8041770818094569E-3</v>
+      </c>
+      <c r="V5">
+        <v>-3.433379946519325E-3</v>
+      </c>
+      <c r="W5">
+        <v>-4.028196359121188E-3</v>
+      </c>
+      <c r="X5">
+        <v>-4.5952550903531507E-3</v>
+      </c>
+      <c r="Y5">
+        <v>-5.1391609650816641E-3</v>
+      </c>
+      <c r="Z5">
+        <v>-5.6631373097384887E-3</v>
+      </c>
+      <c r="AA5">
+        <v>-6.1694647234143644E-3</v>
+      </c>
+      <c r="AB5">
+        <v>-6.6597805676781602E-3</v>
+      </c>
+      <c r="AC5">
+        <v>-7.135283244669814E-3</v>
+      </c>
+      <c r="AD5">
+        <v>-7.5968714214808908E-3</v>
+      </c>
+      <c r="AE5">
+        <v>-8.0452388340575259E-3</v>
+      </c>
+      <c r="AF5">
+        <v>-8.4809387819144294E-3</v>
+      </c>
+      <c r="AG5">
+        <v>-8.9044279596508947E-3</v>
+      </c>
+      <c r="AH5">
+        <v>-9.3160962147544029E-3</v>
+      </c>
+      <c r="AI5">
+        <v>-9.7162867299790366E-3</v>
+      </c>
+      <c r="AJ5">
+        <v>-1.010530969842066E-2</v>
+      </c>
+      <c r="AK5">
+        <v>-1.0483451581999941E-2</v>
+      </c>
+      <c r="AL5">
+        <v>-1.085098137656164E-2</v>
+      </c>
+      <c r="AM5">
+        <v>-1.12081548512426E-2</v>
+      </c>
+      <c r="AN5">
+        <v>-1.155521741925159E-2</v>
+      </c>
+      <c r="AO5">
+        <v>-1.189240608562997E-2</v>
+      </c>
+      <c r="AP5">
+        <v>-1.2219950773707661E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>-1.2538075234158281E-2</v>
+      </c>
+      <c r="AR5">
+        <v>-1.2846997674233701E-2</v>
+      </c>
+      <c r="AS5">
+        <v>-1.314693119978173E-2</v>
+      </c>
+      <c r="AT5">
+        <v>-1.343808413228382E-2</v>
+      </c>
+      <c r="AU5">
+        <v>-1.372066024256809E-2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-0.6569582033898516</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.2880447023026592</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.1480809429429242</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.08931233222083519</v>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-0.65695820338985156</v>
+      </c>
+      <c r="B6">
+        <v>-0.28804470230265922</v>
+      </c>
+      <c r="C6">
+        <v>-0.1480442498140418</v>
+      </c>
+      <c r="D6">
+        <v>-8.9207725985288436E-2</v>
+      </c>
+      <c r="E6">
+        <v>-5.7112790710065767E-2</v>
+      </c>
+      <c r="F6">
+        <v>-3.720853884615595E-2</v>
+      </c>
+      <c r="G6">
+        <v>-2.4170022625190371E-2</v>
+      </c>
+      <c r="H6">
+        <v>-1.5440194531485121E-2</v>
+      </c>
+      <c r="I6">
+        <v>-9.548202491932143E-3</v>
+      </c>
+      <c r="J6">
+        <v>-5.5643932445798329E-3</v>
+      </c>
+      <c r="K6">
+        <v>-2.8753701433204808E-3</v>
+      </c>
+      <c r="L6">
+        <v>-1.0686449991746741E-3</v>
+      </c>
+      <c r="M6">
+        <v>1.3560903104911989E-4</v>
+      </c>
+      <c r="N6">
+        <v>9.2806991718945471E-4</v>
+      </c>
+      <c r="O6">
+        <v>1.4389995324917289E-3</v>
+      </c>
+      <c r="P6">
+        <v>1.7575310737267529E-3</v>
+      </c>
+      <c r="Q6">
+        <v>1.944723188615606E-3</v>
+      </c>
+      <c r="R6">
+        <v>2.0424360243890688E-3</v>
+      </c>
+      <c r="S6">
+        <v>2.079383816995164E-3</v>
+      </c>
+      <c r="T6">
+        <v>2.0752703244298881E-3</v>
+      </c>
+      <c r="U6">
+        <v>2.0436184668185032E-3</v>
+      </c>
+      <c r="V6">
+        <v>1.9937086488283169E-3</v>
+      </c>
+      <c r="W6">
+        <v>1.9319077010830461E-3</v>
+      </c>
+      <c r="X6">
+        <v>1.8625806798294271E-3</v>
+      </c>
+      <c r="Y6">
+        <v>1.788716838274742E-3</v>
+      </c>
+      <c r="Z6">
+        <v>1.712359590122028E-3</v>
+      </c>
+      <c r="AA6">
+        <v>1.6349019711447629E-3</v>
+      </c>
+      <c r="AB6">
+        <v>1.5572897528950619E-3</v>
+      </c>
+      <c r="AC6">
+        <v>1.4801611205601749E-3</v>
+      </c>
+      <c r="AD6">
+        <v>1.4039427568116479E-3</v>
+      </c>
+      <c r="AE6">
+        <v>1.3289159558343821E-3</v>
+      </c>
+      <c r="AF6">
+        <v>1.2552621267451259E-3</v>
+      </c>
+      <c r="AG6">
+        <v>1.18309411835023E-3</v>
+      </c>
+      <c r="AH6">
+        <v>1.1124777870579071E-3</v>
+      </c>
+      <c r="AI6">
+        <v>1.0434468489362639E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>9.7601310787031454E-4</v>
+      </c>
+      <c r="AK6">
+        <v>9.1017349937540573E-4</v>
+      </c>
+      <c r="AL6">
+        <v>8.4591494092437413E-4</v>
+      </c>
+      <c r="AM6">
+        <v>7.8321767103292834E-4</v>
+      </c>
+      <c r="AN6">
+        <v>7.2205754692409294E-4</v>
+      </c>
+      <c r="AO6">
+        <v>6.6240762443073612E-4</v>
+      </c>
+      <c r="AP6">
+        <v>6.0423924312169E-4</v>
+      </c>
+      <c r="AQ6">
+        <v>5.4752277035233763E-4</v>
+      </c>
+      <c r="AR6">
+        <v>4.9222811017102068E-4</v>
+      </c>
+      <c r="AS6">
+        <v>4.3832505011603349E-4</v>
+      </c>
+      <c r="AT6">
+        <v>3.8578349628567028E-4</v>
+      </c>
+      <c r="AU6">
+        <v>3.3457363141452061E-4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.1534573128293432</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.15345731282934319</v>
+      </c>
+      <c r="B7">
         <v>0.1187176541901301</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.08517178757361252</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05863677380295387</v>
+      <c r="C7">
+        <v>8.5192363374026817E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.8691078883310981E-2</v>
+      </c>
+      <c r="E7">
+        <v>3.9810968495991077E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.679137277431955E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.7921282406574899E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.191342000105694E-2</v>
+      </c>
+      <c r="I7">
+        <v>7.862084538573174E-3</v>
+      </c>
+      <c r="J7">
+        <v>5.1439648081664452E-3</v>
+      </c>
+      <c r="K7">
+        <v>3.333388742281175E-3</v>
+      </c>
+      <c r="L7">
+        <v>2.1403682922507949E-3</v>
+      </c>
+      <c r="M7">
+        <v>1.367430171527566E-3</v>
+      </c>
+      <c r="N7">
+        <v>8.8005307153867125E-4</v>
+      </c>
+      <c r="O7">
+        <v>5.8654812732153406E-4</v>
+      </c>
+      <c r="P7">
+        <v>4.2438898390878619E-4</v>
+      </c>
+      <c r="Q7">
+        <v>3.5092173083820112E-4</v>
+      </c>
+      <c r="R7">
+        <v>3.3704531135083618E-4</v>
+      </c>
+      <c r="S7">
+        <v>3.6290773725259262E-4</v>
+      </c>
+      <c r="T7">
+        <v>4.1497203224980639E-4</v>
+      </c>
+      <c r="U7">
+        <v>4.8401423024370372E-4</v>
+      </c>
+      <c r="V7">
+        <v>5.6375643609023738E-4</v>
+      </c>
+      <c r="W7">
+        <v>6.4993306136607422E-4</v>
+      </c>
+      <c r="X7">
+        <v>7.3965277830938627E-4</v>
+      </c>
+      <c r="Y7">
+        <v>8.3096247893815344E-4</v>
+      </c>
+      <c r="Z7">
+        <v>9.2254928251986573E-4</v>
+      </c>
+      <c r="AA7">
+        <v>1.0135369081653561E-3</v>
+      </c>
+      <c r="AB7">
+        <v>1.103346559594947E-3</v>
+      </c>
+      <c r="AC7">
+        <v>1.1916019131268201E-3</v>
+      </c>
+      <c r="AD7">
+        <v>1.27806425320866E-3</v>
+      </c>
+      <c r="AE7">
+        <v>1.362588211741316E-3</v>
+      </c>
+      <c r="AF7">
+        <v>1.4450915847323031E-3</v>
+      </c>
+      <c r="AG7">
+        <v>1.525534763652222E-3</v>
+      </c>
+      <c r="AH7">
+        <v>1.603906730674146E-3</v>
+      </c>
+      <c r="AI7">
+        <v>1.680215532721636E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>1.7544818097449759E-3</v>
+      </c>
+      <c r="AK7">
+        <v>1.8267344043336241E-3</v>
+      </c>
+      <c r="AL7">
+        <v>1.8970073885867301E-3</v>
+      </c>
+      <c r="AM7">
+        <v>1.965338055144341E-3</v>
+      </c>
+      <c r="AN7">
+        <v>2.0317655635120491E-3</v>
+      </c>
+      <c r="AO7">
+        <v>2.0963300312111942E-3</v>
+      </c>
+      <c r="AP7">
+        <v>2.1590719264960008E-3</v>
+      </c>
+      <c r="AQ7">
+        <v>2.220031665197901E-3</v>
+      </c>
+      <c r="AR7">
+        <v>2.2792493454936659E-3</v>
+      </c>
+      <c r="AS7">
+        <v>2.3367645756712718E-3</v>
+      </c>
+      <c r="AT7">
+        <v>2.3926163644428888E-3</v>
+      </c>
+      <c r="AU7">
+        <v>2.4468430531982941E-3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.006207110742723157</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.008708067287001291</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01561437002603166</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.01051997002540343</v>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6.2071107427231573E-3</v>
+      </c>
+      <c r="B8">
+        <v>8.7080672870012907E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.564687719197368E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.062097498670159E-2</v>
+      </c>
+      <c r="E8">
+        <v>6.3564364950520064E-3</v>
+      </c>
+      <c r="F8">
+        <v>3.6654875751863398E-3</v>
+      </c>
+      <c r="G8">
+        <v>2.0514806922394919E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.0796723186175211E-3</v>
+      </c>
+      <c r="I8">
+        <v>4.8127800878589998E-4</v>
+      </c>
+      <c r="J8">
+        <v>1.016718883064748E-4</v>
+      </c>
+      <c r="K8">
+        <v>-1.4731561139917E-4</v>
+      </c>
+      <c r="L8">
+        <v>-3.1662870002642469E-4</v>
+      </c>
+      <c r="M8">
+        <v>-4.3632472183801642E-4</v>
+      </c>
+      <c r="N8">
+        <v>-5.245351409910961E-4</v>
+      </c>
+      <c r="O8">
+        <v>-5.9242291725798918E-4</v>
+      </c>
+      <c r="P8">
+        <v>-6.4698141979441302E-4</v>
+      </c>
+      <c r="Q8">
+        <v>-6.9265412274593929E-4</v>
+      </c>
+      <c r="R8">
+        <v>-7.3229561281004988E-4</v>
+      </c>
+      <c r="S8">
+        <v>-7.6775513311810862E-4</v>
+      </c>
+      <c r="T8">
+        <v>-8.002381608904431E-4</v>
+      </c>
+      <c r="U8">
+        <v>-8.3053425962169606E-4</v>
+      </c>
+      <c r="V8">
+        <v>-8.591626131350292E-4</v>
+      </c>
+      <c r="W8">
+        <v>-8.8646594793521894E-4</v>
+      </c>
+      <c r="X8">
+        <v>-9.1267160569590195E-4</v>
+      </c>
+      <c r="Y8">
+        <v>-9.3793145791507264E-4</v>
+      </c>
+      <c r="Z8">
+        <v>-9.6234807055542112E-4</v>
+      </c>
+      <c r="AA8">
+        <v>-9.8599187530459755E-4</v>
+      </c>
+      <c r="AB8">
+        <v>-1.0089124336904399E-3</v>
+      </c>
+      <c r="AC8">
+        <v>-1.0311458120892921E-3</v>
+      </c>
+      <c r="AD8">
+        <v>-1.0527193944067489E-3</v>
+      </c>
+      <c r="AE8">
+        <v>-1.0736550077672651E-3</v>
+      </c>
+      <c r="AF8">
+        <v>-1.093970939785446E-3</v>
+      </c>
+      <c r="AG8">
+        <v>-1.113683229953156E-3</v>
+      </c>
+      <c r="AH8">
+        <v>-1.1328064878721781E-3</v>
+      </c>
+      <c r="AI8">
+        <v>-1.1513544049133911E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>-1.1693400687947039E-3</v>
+      </c>
+      <c r="AK8">
+        <v>-1.1867761527092229E-3</v>
+      </c>
+      <c r="AL8">
+        <v>-1.203675025593951E-3</v>
+      </c>
+      <c r="AM8">
+        <v>-1.2200488136607189E-3</v>
+      </c>
+      <c r="AN8">
+        <v>-1.235909432439403E-3</v>
+      </c>
+      <c r="AO8">
+        <v>-1.2512686015550649E-3</v>
+      </c>
+      <c r="AP8">
+        <v>-1.266137849820932E-3</v>
+      </c>
+      <c r="AQ8">
+        <v>-1.280528515322468E-3</v>
+      </c>
+      <c r="AR8">
+        <v>-1.2944517432547E-3</v>
+      </c>
+      <c r="AS8">
+        <v>-1.3079184831026379E-3</v>
+      </c>
+      <c r="AT8">
+        <v>-1.3209394860259321E-3</v>
+      </c>
+      <c r="AU8">
+        <v>-1.333525302859356E-3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.2533009406323772</v>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.25330094063237718</v>
+      </c>
+      <c r="B9">
         <v>0.1247387061563453</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.06666411173190563</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.03841204638593761</v>
+      <c r="C9">
+        <v>6.664410603394183E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.8362277065187203E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.2538791225127711E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.3004795187024999E-2</v>
+      </c>
+      <c r="G9">
+        <v>7.0173849277208617E-3</v>
+      </c>
+      <c r="H9">
+        <v>3.1737005958071308E-3</v>
+      </c>
+      <c r="I9">
+        <v>6.8346731980413293E-4</v>
+      </c>
+      <c r="J9">
+        <v>-9.2916678563872393E-4</v>
+      </c>
+      <c r="K9">
+        <v>-1.9635740338368709E-3</v>
+      </c>
+      <c r="L9">
+        <v>-2.6134183046821438E-3</v>
+      </c>
+      <c r="M9">
+        <v>-3.0061879156572562E-3</v>
+      </c>
+      <c r="N9">
+        <v>-3.2267358333435739E-3</v>
+      </c>
+      <c r="O9">
+        <v>-3.3319342313236091E-3</v>
+      </c>
+      <c r="P9">
+        <v>-3.3600717342723348E-3</v>
+      </c>
+      <c r="Q9">
+        <v>-3.3369977933454319E-3</v>
+      </c>
+      <c r="R9">
+        <v>-3.2801920901190879E-3</v>
+      </c>
+      <c r="S9">
+        <v>-3.2014829474594679E-3</v>
+      </c>
+      <c r="T9">
+        <v>-3.1088738946098869E-3</v>
+      </c>
+      <c r="U9">
+        <v>-3.0077759168710581E-3</v>
+      </c>
+      <c r="V9">
+        <v>-2.9018410713887838E-3</v>
+      </c>
+      <c r="W9">
+        <v>-2.793527499572688E-3</v>
+      </c>
+      <c r="X9">
+        <v>-2.6844828704202062E-3</v>
+      </c>
+      <c r="Y9">
+        <v>-2.5758048109636791E-3</v>
+      </c>
+      <c r="Z9">
+        <v>-2.4682178654936672E-3</v>
+      </c>
+      <c r="AA9">
+        <v>-2.36219375547384E-3</v>
+      </c>
+      <c r="AB9">
+        <v>-2.2580331000767871E-3</v>
+      </c>
+      <c r="AC9">
+        <v>-2.1559209316154879E-3</v>
+      </c>
+      <c r="AD9">
+        <v>-2.0559643906304789E-3</v>
+      </c>
+      <c r="AE9">
+        <v>-1.9582183035974452E-3</v>
+      </c>
+      <c r="AF9">
+        <v>-1.8627025233040079E-3</v>
+      </c>
+      <c r="AG9">
+        <v>-1.7694136718579129E-3</v>
+      </c>
+      <c r="AH9">
+        <v>-1.6783330823556359E-3</v>
+      </c>
+      <c r="AI9">
+        <v>-1.589432160805178E-3</v>
+      </c>
+      <c r="AJ9">
+        <v>-1.502675998813729E-3</v>
+      </c>
+      <c r="AK9">
+        <v>-1.4180258014093339E-3</v>
+      </c>
+      <c r="AL9">
+        <v>-1.3354405132459911E-3</v>
+      </c>
+      <c r="AM9">
+        <v>-1.254877903233555E-3</v>
+      </c>
+      <c r="AN9">
+        <v>-1.1762952838990769E-3</v>
+      </c>
+      <c r="AO9">
+        <v>-1.0996499848595169E-3</v>
+      </c>
+      <c r="AP9">
+        <v>-1.0248996611602829E-3</v>
+      </c>
+      <c r="AQ9">
+        <v>-9.5200249102029297E-4</v>
+      </c>
+      <c r="AR9">
+        <v>-8.8091729975415796E-4</v>
+      </c>
+      <c r="AS9">
+        <v>-8.1160363463271372E-4</v>
+      </c>
+      <c r="AT9">
+        <v>-7.4402180730057479E-4</v>
+      </c>
+      <c r="AU9">
+        <v>-6.7813291488506258E-4</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-0.05498441224729209</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.02170107662484991</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.001370312232065336</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.003284209006451265</v>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-5.4984412247292093E-2</v>
+      </c>
+      <c r="B10">
+        <v>-2.1701076624849911E-2</v>
+      </c>
+      <c r="C10">
+        <v>-1.3848713589570841E-3</v>
+      </c>
+      <c r="D10">
+        <v>3.2412832386005072E-3</v>
+      </c>
+      <c r="E10">
+        <v>3.6719799863525289E-3</v>
+      </c>
+      <c r="F10">
+        <v>3.0254513233139132E-3</v>
+      </c>
+      <c r="G10">
+        <v>2.2550418623814451E-3</v>
+      </c>
+      <c r="H10">
+        <v>1.624228200651532E-3</v>
+      </c>
+      <c r="I10">
+        <v>1.17259299477974E-3</v>
+      </c>
+      <c r="J10">
+        <v>8.7500696189009839E-4</v>
+      </c>
+      <c r="K10">
+        <v>6.9464560712386055E-4</v>
+      </c>
+      <c r="L10">
+        <v>5.9881075780160128E-4</v>
+      </c>
+      <c r="M10">
+        <v>5.6219635995359671E-4</v>
+      </c>
+      <c r="N10">
+        <v>5.6630642017094007E-4</v>
+      </c>
+      <c r="O10">
+        <v>5.9799340030508498E-4</v>
+      </c>
+      <c r="P10">
+        <v>6.4804892240607906E-4</v>
+      </c>
+      <c r="Q10">
+        <v>7.1007802156133827E-4</v>
+      </c>
+      <c r="R10">
+        <v>7.7966318262073862E-4</v>
+      </c>
+      <c r="S10">
+        <v>8.5376461471374445E-4</v>
+      </c>
+      <c r="T10">
+        <v>9.302976589023325E-4</v>
+      </c>
+      <c r="U10">
+        <v>1.007837935342036E-3</v>
+      </c>
+      <c r="V10">
+        <v>1.085416764166738E-3</v>
+      </c>
+      <c r="W10">
+        <v>1.162379673692698E-3</v>
+      </c>
+      <c r="X10">
+        <v>1.2382887155026759E-3</v>
+      </c>
+      <c r="Y10">
+        <v>1.3128550854556601E-3</v>
+      </c>
+      <c r="Z10">
+        <v>1.385892665847036E-3</v>
+      </c>
+      <c r="AA10">
+        <v>1.457285993414521E-3</v>
+      </c>
+      <c r="AB10">
+        <v>1.5269681691779109E-3</v>
+      </c>
+      <c r="AC10">
+        <v>1.5949056190840069E-3</v>
+      </c>
+      <c r="AD10">
+        <v>1.661087576272174E-3</v>
+      </c>
+      <c r="AE10">
+        <v>1.7255188186818999E-3</v>
+      </c>
+      <c r="AF10">
+        <v>1.7882146522189811E-3</v>
+      </c>
+      <c r="AG10">
+        <v>1.8491974438602299E-3</v>
+      </c>
+      <c r="AH10">
+        <v>1.9084942252653701E-3</v>
+      </c>
+      <c r="AI10">
+        <v>1.9661350363093001E-3</v>
+      </c>
+      <c r="AJ10">
+        <v>2.0221517804131671E-3</v>
+      </c>
+      <c r="AK10">
+        <v>2.0765774341440662E-3</v>
+      </c>
+      <c r="AL10">
+        <v>2.1294455022204568E-3</v>
+      </c>
+      <c r="AM10">
+        <v>2.1807896426431351E-3</v>
+      </c>
+      <c r="AN10">
+        <v>2.2306434098236559E-3</v>
+      </c>
+      <c r="AO10">
+        <v>2.2790400796143069E-3</v>
+      </c>
+      <c r="AP10">
+        <v>2.3260125312000628E-3</v>
+      </c>
+      <c r="AQ10">
+        <v>2.3715931684855679E-3</v>
+      </c>
+      <c r="AR10">
+        <v>2.4158138689065519E-3</v>
+      </c>
+      <c r="AS10">
+        <v>2.4587059512801738E-3</v>
+      </c>
+      <c r="AT10">
+        <v>2.5003001568711402E-3</v>
+      </c>
+      <c r="AU10">
+        <v>2.5406266395934388E-3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>-0.1038927792900755</v>
       </c>
-      <c r="B11" t="n">
-        <v>-0.02321398126550801</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.006733387377862987</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.001649536540996625</v>
+      <c r="B11">
+        <v>-2.321398126550801E-2</v>
+      </c>
+      <c r="C11">
+        <v>-6.7362841427351912E-3</v>
+      </c>
+      <c r="D11">
+        <v>-1.6588860111333599E-3</v>
+      </c>
+      <c r="E11">
+        <v>-4.170253435745885E-4</v>
+      </c>
+      <c r="F11">
+        <v>-2.0391793421890611E-4</v>
+      </c>
+      <c r="G11">
+        <v>-2.176500139099494E-4</v>
+      </c>
+      <c r="H11">
+        <v>-2.5647656549751991E-4</v>
+      </c>
+      <c r="I11">
+        <v>-2.7879516576757488E-4</v>
+      </c>
+      <c r="J11">
+        <v>-2.8177833058307019E-4</v>
+      </c>
+      <c r="K11">
+        <v>-2.7011629287614438E-4</v>
+      </c>
+      <c r="L11">
+        <v>-2.4865736430094949E-4</v>
+      </c>
+      <c r="M11">
+        <v>-2.210705707744983E-4</v>
+      </c>
+      <c r="N11">
+        <v>-1.898934050301781E-4</v>
+      </c>
+      <c r="O11">
+        <v>-1.5681396816693511E-4</v>
+      </c>
+      <c r="P11">
+        <v>-1.229283736996093E-4</v>
+      </c>
+      <c r="Q11">
+        <v>-8.8932894712739574E-5</v>
+      </c>
+      <c r="R11">
+        <v>-5.5258618377976522E-5</v>
+      </c>
+      <c r="S11">
+        <v>-2.2163301010043071E-5</v>
+      </c>
+      <c r="T11">
+        <v>1.020693517399767E-5</v>
+      </c>
+      <c r="U11">
+        <v>4.177665447603271E-5</v>
+      </c>
+      <c r="V11">
+        <v>7.2514239767955386E-5</v>
+      </c>
+      <c r="W11">
+        <v>1.024144786513712E-4</v>
+      </c>
+      <c r="X11">
+        <v>1.3148743681317161E-4</v>
+      </c>
+      <c r="Y11">
+        <v>1.5975147129405979E-4</v>
+      </c>
+      <c r="Z11">
+        <v>1.8722894025244199E-4</v>
+      </c>
+      <c r="AA11">
+        <v>2.1394364718075839E-4</v>
+      </c>
+      <c r="AB11">
+        <v>2.399193840255372E-4</v>
+      </c>
+      <c r="AC11">
+        <v>2.6517915747019448E-4</v>
+      </c>
+      <c r="AD11">
+        <v>2.8974482940986201E-4</v>
+      </c>
+      <c r="AE11">
+        <v>3.13636999941473E-4</v>
+      </c>
+      <c r="AF11">
+        <v>3.3687502505853092E-4</v>
+      </c>
+      <c r="AG11">
+        <v>3.5947710276075778E-4</v>
+      </c>
+      <c r="AH11">
+        <v>3.8146038800953907E-4</v>
+      </c>
+      <c r="AI11">
+        <v>4.0284111381212479E-4</v>
+      </c>
+      <c r="AJ11">
+        <v>4.2363470627965237E-4</v>
+      </c>
+      <c r="AK11">
+        <v>4.4385588784284303E-4</v>
+      </c>
+      <c r="AL11">
+        <v>4.6351876658430168E-4</v>
+      </c>
+      <c r="AM11">
+        <v>4.8263691172199092E-4</v>
+      </c>
+      <c r="AN11">
+        <v>5.0122341635550744E-4</v>
+      </c>
+      <c r="AO11">
+        <v>5.1929094905469675E-4</v>
+      </c>
+      <c r="AP11">
+        <v>5.3685179597353131E-4</v>
+      </c>
+      <c r="AQ11">
+        <v>5.5391789510821879E-4</v>
+      </c>
+      <c r="AR11">
+        <v>5.7050086414078165E-4</v>
+      </c>
+      <c r="AS11">
+        <v>5.8661202311829116E-4</v>
+      </c>
+      <c r="AT11">
+        <v>6.0226241300542641E-4</v>
+      </c>
+      <c r="AU11">
+        <v>6.1746281096837627E-4</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.03193852863420001</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.009549210360223952</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001166773592677189</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0006016549825061951</v>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3.1938528634200013E-2</v>
+      </c>
+      <c r="B12">
+        <v>9.549210360223952E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.1682339925702669E-3</v>
+      </c>
+      <c r="D12">
+        <v>6.0570563742915753E-4</v>
+      </c>
+      <c r="E12">
+        <v>3.9201862559505758E-4</v>
+      </c>
+      <c r="F12">
+        <v>2.7397987793231109E-4</v>
+      </c>
+      <c r="G12">
+        <v>1.985589625090884E-4</v>
+      </c>
+      <c r="H12">
+        <v>1.4745317020820541E-4</v>
+      </c>
+      <c r="I12">
+        <v>1.1175602363976399E-4</v>
+      </c>
+      <c r="J12">
+        <v>8.6304482166326579E-5</v>
+      </c>
+      <c r="K12">
+        <v>6.7834725687742606E-5</v>
+      </c>
+      <c r="L12">
+        <v>5.4189196604061148E-5</v>
+      </c>
+      <c r="M12">
+        <v>4.390714955524871E-5</v>
+      </c>
+      <c r="N12">
+        <v>3.598634877618521E-5</v>
+      </c>
+      <c r="O12">
+        <v>2.9733670378092839E-5</v>
+      </c>
+      <c r="P12">
+        <v>2.4667262313284151E-5</v>
+      </c>
+      <c r="Q12">
+        <v>2.045085350821706E-5</v>
+      </c>
+      <c r="R12">
+        <v>1.684901352786479E-5</v>
+      </c>
+      <c r="S12">
+        <v>1.369642036292006E-5</v>
+      </c>
+      <c r="T12">
+        <v>1.0876635287311351E-5</v>
+      </c>
+      <c r="U12">
+        <v>8.3073879236221802E-6</v>
+      </c>
+      <c r="V12">
+        <v>5.9303447981271734E-6</v>
+      </c>
+      <c r="W12">
+        <v>3.7039778002183591E-6</v>
+      </c>
+      <c r="X12">
+        <v>1.59858239164405E-6</v>
+      </c>
+      <c r="Y12">
+        <v>-4.0720964743910277E-7</v>
+      </c>
+      <c r="Z12">
+        <v>-2.3288761356886562E-6</v>
+      </c>
+      <c r="AA12">
+        <v>-4.1777233476086083E-6</v>
+      </c>
+      <c r="AB12">
+        <v>-5.9620962444037336E-6</v>
+      </c>
+      <c r="AC12">
+        <v>-7.6882321879156717E-6</v>
+      </c>
+      <c r="AD12">
+        <v>-9.3608643064910237E-6</v>
+      </c>
+      <c r="AE12">
+        <v>-1.09836487209202E-5</v>
+      </c>
+      <c r="AF12">
+        <v>-1.2559467614820141E-5</v>
+      </c>
+      <c r="AG12">
+        <v>-1.409064465603486E-5</v>
+      </c>
+      <c r="AH12">
+        <v>-1.5579098388082649E-5</v>
+      </c>
+      <c r="AI12">
+        <v>-1.702645168484466E-5</v>
+      </c>
+      <c r="AJ12">
+        <v>-1.8434110003406191E-5</v>
+      </c>
+      <c r="AK12">
+        <v>-1.9803317453124809E-5</v>
+      </c>
+      <c r="AL12">
+        <v>-2.113519705522139E-5</v>
+      </c>
+      <c r="AM12">
+        <v>-2.243077973044318E-5</v>
+      </c>
+      <c r="AN12">
+        <v>-2.3691025218091189E-5</v>
+      </c>
+      <c r="AO12">
+        <v>-2.4916837229643151E-5</v>
+      </c>
+      <c r="AP12">
+        <v>-2.6109074456492269E-5</v>
+      </c>
+      <c r="AQ12">
+        <v>-2.7268558607260089E-5</v>
+      </c>
+      <c r="AR12">
+        <v>-2.8396080304082618E-5</v>
+      </c>
+      <c r="AS12">
+        <v>-2.9492403433359661E-5</v>
+      </c>
+      <c r="AT12">
+        <v>-3.0558268384451749E-5</v>
+      </c>
+      <c r="AU12">
+        <v>-3.1594394483078293E-5</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.003729245419433178</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.004836423310166326</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.000383547389520872</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.0002558436537012285</v>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3.7292454194331778E-3</v>
+      </c>
+      <c r="B13">
+        <v>4.8364233101663261E-3</v>
+      </c>
+      <c r="C13">
+        <v>-3.8394071891977678E-4</v>
+      </c>
+      <c r="D13">
+        <v>-2.568898354513767E-4</v>
+      </c>
+      <c r="E13">
+        <v>-1.5410441691307379E-4</v>
+      </c>
+      <c r="F13">
+        <v>-9.1300409301653859E-5</v>
+      </c>
+      <c r="G13">
+        <v>-5.5031050764041552E-5</v>
+      </c>
+      <c r="H13">
+        <v>-3.4339769901042161E-5</v>
+      </c>
+      <c r="I13">
+        <v>-2.2661370206785931E-5</v>
+      </c>
+      <c r="J13">
+        <v>-1.6273197558462578E-5</v>
+      </c>
+      <c r="K13">
+        <v>-1.3049043652627199E-5</v>
+      </c>
+      <c r="L13">
+        <v>-1.1743069950440609E-5</v>
+      </c>
+      <c r="M13">
+        <v>-1.160568414603749E-5</v>
+      </c>
+      <c r="N13">
+        <v>-1.217650276160706E-5</v>
+      </c>
+      <c r="O13">
+        <v>-1.316907176711662E-5</v>
+      </c>
+      <c r="P13">
+        <v>-1.4404100217516401E-5</v>
+      </c>
+      <c r="Q13">
+        <v>-1.5769398380812348E-5</v>
+      </c>
+      <c r="R13">
+        <v>-1.719517841573295E-5</v>
+      </c>
+      <c r="S13">
+        <v>-1.8638541226058332E-5</v>
+      </c>
+      <c r="T13">
+        <v>-2.0073621624118749E-5</v>
+      </c>
+      <c r="U13">
+        <v>-2.1485291664628069E-5</v>
+      </c>
+      <c r="V13">
+        <v>-2.28651313705224E-5</v>
+      </c>
+      <c r="W13">
+        <v>-2.4208855399456501E-5</v>
+      </c>
+      <c r="X13">
+        <v>-2.5514677798974441E-5</v>
+      </c>
+      <c r="Y13">
+        <v>-2.6782281270771809E-5</v>
+      </c>
+      <c r="Z13">
+        <v>-2.8012175023924989E-5</v>
+      </c>
+      <c r="AA13">
+        <v>-2.9205301158685811E-5</v>
+      </c>
+      <c r="AB13">
+        <v>-3.0362798817256339E-5</v>
+      </c>
+      <c r="AC13">
+        <v>-3.1485867445076829E-5</v>
+      </c>
+      <c r="AD13">
+        <v>-3.2575691420474483E-5</v>
+      </c>
+      <c r="AE13">
+        <v>-3.3633401970503082E-5</v>
+      </c>
+      <c r="AF13">
+        <v>-3.4660061115061827E-5</v>
+      </c>
+      <c r="AG13">
+        <v>-3.5656658125198658E-5</v>
+      </c>
+      <c r="AH13">
+        <v>-3.6624112633315523E-5</v>
+      </c>
+      <c r="AI13">
+        <v>-3.7563280897341912E-5</v>
+      </c>
+      <c r="AJ13">
+        <v>-3.8474963168194708E-5</v>
+      </c>
+      <c r="AK13">
+        <v>-3.9359911037115851E-5</v>
+      </c>
+      <c r="AL13">
+        <v>-4.0218834199057237E-5</v>
+      </c>
+      <c r="AM13">
+        <v>-4.1052406377992949E-5</v>
+      </c>
+      <c r="AN13">
+        <v>-4.186127036873763E-5</v>
+      </c>
+      <c r="AO13">
+        <v>-4.2646042231407327E-5</v>
+      </c>
+      <c r="AP13">
+        <v>-4.34073147363262E-5</v>
+      </c>
+      <c r="AQ13">
+        <v>-4.4145660156997811E-5</v>
+      </c>
+      <c r="AR13">
+        <v>-4.4861632528584153E-5</v>
+      </c>
+      <c r="AS13">
+        <v>-4.5555769459034222E-5</v>
+      </c>
+      <c r="AT13">
+        <v>-4.6228593586725812E-5</v>
+      </c>
+      <c r="AU13">
+        <v>-4.6880613753765209E-5</v>
       </c>
     </row>
   </sheetData>
